--- a/data/Pro_Test.xlsx
+++ b/data/Pro_Test.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_DOCKER\cakephp2\www\readXLS\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36433C-2A07-479D-AC81-0D6CDB849304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11565" activeTab="2"/>
+    <workbookView xWindow="1965" yWindow="1020" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
     <sheet name="Data2" sheetId="2" r:id="rId2"/>
     <sheet name="result" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jedsada Yongpiyapong_OTC</author>
   </authors>
   <commentList>
-    <comment ref="D23" authorId="0">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
   <si>
     <t>TYPE</t>
   </si>
@@ -179,22 +196,25 @@
   </si>
   <si>
     <t>Data จากทาง Sheet Data2</t>
+  </si>
+  <si>
+    <t>IC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -202,7 +222,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -210,14 +230,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -226,7 +246,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,14 +304,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,10 +321,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -317,29 +337,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -388,7 +411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,9 +444,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,6 +496,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -631,27 +688,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -668,13 +725,13 @@
         <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="7">
         <v>43466</v>
       </c>
@@ -699,7 +756,7 @@
       <c r="I2" s="15"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="7">
         <v>43467</v>
       </c>
@@ -722,7 +779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="7">
         <v>43468</v>
       </c>
@@ -745,7 +802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="7">
         <v>43469</v>
       </c>
@@ -769,7 +826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="7">
         <v>43470</v>
       </c>
@@ -793,7 +850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="7">
         <v>43471</v>
       </c>
@@ -817,7 +874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="7">
         <v>43472</v>
       </c>
@@ -841,7 +898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="7">
         <v>43473</v>
       </c>
@@ -864,7 +921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="7">
         <v>43474</v>
       </c>
@@ -888,7 +945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="7">
         <v>43475</v>
       </c>
@@ -912,7 +969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="7">
         <v>43476</v>
       </c>
@@ -935,7 +992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="7">
         <v>43477</v>
       </c>
@@ -959,7 +1016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="7">
         <v>43478</v>
       </c>
@@ -983,7 +1040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="7">
         <v>43479</v>
       </c>
@@ -1006,7 +1063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="7">
         <v>43480</v>
       </c>
@@ -1029,7 +1086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="7">
         <v>43481</v>
       </c>
@@ -1052,7 +1109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="7">
         <v>43482</v>
       </c>
@@ -1075,7 +1132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="7">
         <v>43483</v>
       </c>
@@ -1098,7 +1155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="7">
         <v>43484</v>
       </c>
@@ -1121,7 +1178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="7">
         <v>43485</v>
       </c>
@@ -1144,7 +1201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="7">
         <v>43486</v>
       </c>
@@ -1167,7 +1224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="7">
         <v>43487</v>
       </c>
@@ -1190,7 +1247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="7">
         <v>43488</v>
       </c>
@@ -1213,7 +1270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="7">
         <v>43489</v>
       </c>
@@ -1236,7 +1293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="7">
         <v>43490</v>
       </c>
@@ -1259,7 +1316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="7">
         <v>43491</v>
       </c>
@@ -1282,7 +1339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="7">
         <v>43492</v>
       </c>
@@ -1305,10 +1362,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="D29" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
@@ -1320,20 +1377,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1341,7 +1398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1406,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1414,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1422,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1430,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1438,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1446,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1454,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1462,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1470,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1421,7 +1478,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1429,7 +1486,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1494,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1445,7 +1502,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1453,7 +1510,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1461,7 +1518,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1469,7 +1526,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1477,7 +1534,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1485,7 +1542,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -1496,55 +1553,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="4">
         <v>1234</v>
       </c>
@@ -1571,7 +1628,7 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="10"/>
@@ -1594,7 +1651,7 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>24</v>
@@ -1624,7 +1681,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -1641,7 +1698,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1706,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1714,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -1665,7 +1722,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
@@ -1673,7 +1730,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1738,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1746,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="16" t="s">
         <v>12</v>
       </c>
@@ -1697,7 +1754,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="16" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1762,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1713,7 +1770,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1730,7 +1787,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1795,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="16" t="s">
         <v>17</v>
       </c>
@@ -1746,7 +1803,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="16" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1811,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="16" t="s">
         <v>19</v>
       </c>
@@ -1771,7 +1828,7 @@
         <v>113249.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +1836,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
         <v>21</v>
       </c>
@@ -1787,7 +1844,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="16" t="s">
         <v>22</v>
       </c>
@@ -1795,23 +1852,23 @@
       <c r="C22" s="3"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="18">
         <f>SUM(D5:D22)</f>
         <v>121049.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
@@ -1871,7 +1928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.75">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
